--- a/biology/Zoologie/Coniophanes_fissidens/Coniophanes_fissidens.xlsx
+++ b/biology/Zoologie/Coniophanes_fissidens/Coniophanes_fissidens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coniophanes fissidens est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coniophanes fissidens est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Mexique, au Belize, au Guatemala, au Honduras, au Salvador, au Nicaragua, au Costa Rica, au Panamá, en Colombie, en Équateur et au Pérou[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Mexique, au Belize, au Guatemala, au Honduras, au Salvador, au Nicaragua, au Costa Rica, au Panamá, en Colombie, en Équateur et au Pérou.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (29 août 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (29 août 2013) :
 Coniophanes fissidens convergens Shannon &amp; Smith, 1950
 Coniophanes fissidens dispersus Smith, 1941
 Coniophanes fissidens fissidens (Günther, 1858)
@@ -577,7 +593,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1860 : Catalogue of the Colubridae in the Museum of the Academy of Natural Sciences of Philadelphia, with notes and descriptions of new species. Part 2. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 241-266 (texte intégral).
 Günther, 1858 : Catalogue of Colubrine Snakes in the Collection of the British Museum, London, p. 1-281 (texte intégral).
